--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.59019999999999</v>
+        <v>-21.60199999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.56810000000001</v>
+        <v>-22.54300000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.64149999999998</v>
+        <v>-20.02129999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.00550000000001</v>
+        <v>-12.0513</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.31930000000001</v>
+        <v>-22.24060000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.6223</v>
+        <v>-11.5425</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.5142</v>
+        <v>-10.57079999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.60320000000003</v>
+        <v>17.49660000000002</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.6944</v>
+        <v>16.67420000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.87130000000001</v>
+        <v>17.01610000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.72859999999999</v>
+        <v>-14.70449999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.01830000000001</v>
+        <v>-22.05740000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.4058</v>
+        <v>16.157</v>
       </c>
     </row>
     <row r="17">
@@ -763,35 +763,35 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.44039999999999</v>
+        <v>16.35619999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.20679999999999</v>
+        <v>-19.5844</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.4258</v>
+        <v>-12.7674</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.22539999999999</v>
+        <v>16.25229999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.99179999999998</v>
+        <v>-20.11039999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.03650000000001</v>
+        <v>-11.99200000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.19640000000001</v>
+        <v>-12.07150000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.12680000000002</v>
+        <v>17.04660000000003</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.14930000000001</v>
+        <v>-12.11330000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.88099999999999</v>
+        <v>-21.83769999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.15279999999997</v>
+        <v>-21.52859999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.45440000000001</v>
+        <v>-11.57630000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.60349999999998</v>
+        <v>-21.6039</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.19789999999999</v>
+        <v>-21.29599999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.42960000000001</v>
+        <v>-11.23580000000002</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.85189999999999</v>
+        <v>16.07970000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.19660000000001</v>
+        <v>-19.83749999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.039</v>
+        <v>-12.20480000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.94379999999999</v>
+        <v>-12.97219999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.40600000000002</v>
+        <v>17.31180000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.901</v>
+        <v>-13.9007</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.8781</v>
+        <v>-13.95699999999998</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.21320000000001</v>
+        <v>-21.98889999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.33649999999999</v>
+        <v>-12.8199</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.70790000000001</v>
+        <v>17.00509999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1284,24 +1284,24 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.15659999999999</v>
+        <v>-14.23869999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.30679999999999</v>
+        <v>16.32889999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.58779999999999</v>
+        <v>-21.72889999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.9889</v>
+        <v>-11.0086</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.20740000000001</v>
+        <v>-22.23850000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.08389999999999</v>
+        <v>-21.9003</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.39569999999999</v>
+        <v>-12.37119999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.32709999999999</v>
+        <v>-22.32130000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.25510000000001</v>
+        <v>-22.19920000000002</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.2708</v>
+        <v>-13.55599999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.57679999999998</v>
+        <v>-21.81619999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.006</v>
+        <v>-11.1205</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9255</v>
+        <v>-11.0054</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.47100000000001</v>
+        <v>-20.34229999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.97829999999998</v>
+        <v>-22.10939999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.41989999999999</v>
+        <v>16.4832</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.87799999999999</v>
+        <v>-20.02319999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.0378</v>
+        <v>-11.82020000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.1419</v>
+        <v>-13.44959999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.89219999999999</v>
+        <v>-13.7257</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.79609999999998</v>
+        <v>-21.76219999999999</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.3546</v>
+        <v>-11.1667</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.06490000000002</v>
+        <v>18.09030000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2083,13 +2083,13 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.98300000000001</v>
+        <v>-10.8777</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.6662</v>
+        <v>16.5142</v>
       </c>
     </row>
     <row r="98">
@@ -2123,12 +2123,12 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.6233</v>
+        <v>16.6104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.2725</v>
+        <v>-22.2961</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
